--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3429.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3429.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7861794973841627</v>
+        <v>1.372826457023621</v>
       </c>
       <c r="B1">
-        <v>1.120382677724147</v>
+        <v>2.645212173461914</v>
       </c>
       <c r="C1">
-        <v>2.146349111372361</v>
+        <v>5.745145320892334</v>
       </c>
       <c r="D1">
-        <v>4.76642892773762</v>
+        <v>2.235954761505127</v>
       </c>
       <c r="E1">
-        <v>3.212096062208897</v>
+        <v>1.219179153442383</v>
       </c>
     </row>
   </sheetData>
